--- a/Measurement_Results/UV-VIS/11.03.16/GNP_alle_20k.xlsx
+++ b/Measurement_Results/UV-VIS/11.03.16/GNP_alle_20k.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="0" windowWidth="15420" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="28720" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Zonder Zout" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -471,6 +471,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,6 +508,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11506,11 +11508,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2088802960"/>
-        <c:axId val="-2080166048"/>
+        <c:axId val="-1994898448"/>
+        <c:axId val="2140984608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2088802960"/>
+        <c:axId val="-1994898448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11567,12 +11569,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080166048"/>
+        <c:crossAx val="2140984608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2080166048"/>
+        <c:axId val="2140984608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11629,7 +11631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088802960"/>
+        <c:crossAx val="-1994898448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11643,6 +11645,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22666,11 +22669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2044392848"/>
-        <c:axId val="-2044602288"/>
+        <c:axId val="-1996061824"/>
+        <c:axId val="-1997594880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2044392848"/>
+        <c:axId val="-1996061824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22680,12 +22683,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2044602288"/>
+        <c:crossAx val="-1997594880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2044602288"/>
+        <c:axId val="-1997594880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22696,7 +22699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2044392848"/>
+        <c:crossAx val="-1996061824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -26405,11 +26408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2046418224"/>
-        <c:axId val="-2073358128"/>
+        <c:axId val="-1992658368"/>
+        <c:axId val="-1996339264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2046418224"/>
+        <c:axId val="-1992658368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="900.0"/>
@@ -26421,12 +26424,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073358128"/>
+        <c:crossAx val="-1996339264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2073358128"/>
+        <c:axId val="-1996339264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26437,7 +26440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2046418224"/>
+        <c:crossAx val="-1992658368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -30141,11 +30144,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2040228368"/>
-        <c:axId val="-2040225632"/>
+        <c:axId val="-2045948096"/>
+        <c:axId val="-2046717072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2040228368"/>
+        <c:axId val="-2045948096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="900.0"/>
@@ -30157,12 +30160,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2040225632"/>
+        <c:crossAx val="-2046717072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2040225632"/>
+        <c:axId val="-2046717072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30173,7 +30176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2040228368"/>
+        <c:crossAx val="-2045948096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -33877,11 +33880,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2072417088"/>
-        <c:axId val="-2046530592"/>
+        <c:axId val="-2045911312"/>
+        <c:axId val="-2046044224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2072417088"/>
+        <c:axId val="-2045911312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="900.0"/>
@@ -33893,12 +33896,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2046530592"/>
+        <c:crossAx val="-2046044224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2046530592"/>
+        <c:axId val="-2046044224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33909,7 +33912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072417088"/>
+        <c:crossAx val="-2045911312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -34931,8 +34934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WD34"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView topLeftCell="HM25" zoomScale="224" workbookViewId="0">
+      <selection activeCell="IE32" sqref="IE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38275,7 +38278,7 @@
       <c r="ID32">
         <v>0.4812999963760376</v>
       </c>
-      <c r="IE32">
+      <c r="IE32" s="7">
         <v>0.4814000129699707</v>
       </c>
       <c r="IF32">
@@ -40044,7 +40047,7 @@
       <c r="HQ33">
         <v>0.46189999580383301</v>
       </c>
-      <c r="HR33">
+      <c r="HR33" s="7">
         <v>0.46200001239776611</v>
       </c>
       <c r="HS33">
@@ -41840,7 +41843,7 @@
       <c r="HM34">
         <v>0.42070001363754272</v>
       </c>
-      <c r="HN34">
+      <c r="HN34" s="7">
         <v>0.42100000381469727</v>
       </c>
       <c r="HO34">
@@ -42996,8 +42999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WD68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="HI16" zoomScale="182" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="HO34" sqref="HO34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45710,7 +45713,7 @@
       <c r="IE30">
         <v>0.45170000195503235</v>
       </c>
-      <c r="IF30">
+      <c r="IF30" s="7">
         <v>0.45179998874664307</v>
       </c>
       <c r="IG30">
@@ -47479,7 +47482,7 @@
       <c r="HR31">
         <v>0.4357999861240387</v>
       </c>
-      <c r="HS31">
+      <c r="HS31" s="7">
         <v>0.4359000027179718</v>
       </c>
       <c r="HT31">
@@ -49275,7 +49278,7 @@
       <c r="HN32">
         <v>0.39590001106262207</v>
       </c>
-      <c r="HO32">
+      <c r="HO32" s="7">
         <v>0.39599999785423279</v>
       </c>
       <c r="HP32">

--- a/Measurement_Results/UV-VIS/11.03.16/GNP_alle_20k.xlsx
+++ b/Measurement_Results/UV-VIS/11.03.16/GNP_alle_20k.xlsx
@@ -327,15 +327,6 @@
     <t>Wavel.</t>
   </si>
   <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
     <t>End Time:</t>
   </si>
   <si>
@@ -352,6 +343,15 @@
   </si>
   <si>
     <t>Temperature: 22.7 °C</t>
+  </si>
+  <si>
+    <t>0.8ml 8/10</t>
+  </si>
+  <si>
+    <t>1.24 ml 8/10</t>
+  </si>
+  <si>
+    <t>2.5ml 8/10</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F11</c:v>
+                  <c:v>0.8ml 8/10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4205,7 +4205,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F12</c:v>
+                  <c:v>1.24 ml 8/10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7857,7 +7857,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>G12</c:v>
+                  <c:v>2.5ml 8/10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11508,11 +11508,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1994898448"/>
-        <c:axId val="2140984608"/>
+        <c:axId val="-2130608704"/>
+        <c:axId val="-2131402304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1994898448"/>
+        <c:axId val="-2130608704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11569,12 +11569,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140984608"/>
+        <c:crossAx val="-2131402304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2140984608"/>
+        <c:axId val="-2131402304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11631,7 +11631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994898448"/>
+        <c:crossAx val="-2130608704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11741,7 +11741,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F11</c:v>
+                  <c:v>0.8ml 8/10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15384,7 +15384,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F12</c:v>
+                  <c:v>1.24 ml 8/10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19027,7 +19027,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>G12</c:v>
+                  <c:v>2.5ml 8/10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22669,11 +22669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1996061824"/>
-        <c:axId val="-1997594880"/>
+        <c:axId val="-2101367232"/>
+        <c:axId val="-2101792480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1996061824"/>
+        <c:axId val="-2101367232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22683,12 +22683,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1997594880"/>
+        <c:crossAx val="-2101792480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1997594880"/>
+        <c:axId val="-2101792480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22699,7 +22699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1996061824"/>
+        <c:crossAx val="-2101367232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -26408,11 +26408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1992658368"/>
-        <c:axId val="-1996339264"/>
+        <c:axId val="2133050784"/>
+        <c:axId val="-2112631072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1992658368"/>
+        <c:axId val="2133050784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="900.0"/>
@@ -26424,12 +26424,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1996339264"/>
+        <c:crossAx val="-2112631072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1996339264"/>
+        <c:axId val="-2112631072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26440,7 +26440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1992658368"/>
+        <c:crossAx val="2133050784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -30144,11 +30144,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2045948096"/>
-        <c:axId val="-2046717072"/>
+        <c:axId val="2132850368"/>
+        <c:axId val="-2105733392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2045948096"/>
+        <c:axId val="2132850368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="900.0"/>
@@ -30160,12 +30160,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2046717072"/>
+        <c:crossAx val="-2105733392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2046717072"/>
+        <c:axId val="-2105733392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30176,7 +30176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2045948096"/>
+        <c:crossAx val="2132850368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -33880,11 +33880,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2045911312"/>
-        <c:axId val="-2046044224"/>
+        <c:axId val="-2131124944"/>
+        <c:axId val="-2131183808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2045911312"/>
+        <c:axId val="-2131124944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="900.0"/>
@@ -33896,12 +33896,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2046044224"/>
+        <c:crossAx val="-2131183808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2046044224"/>
+        <c:axId val="-2131183808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33912,7 +33912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2045911312"/>
+        <c:crossAx val="-2131124944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -34934,8 +34934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WD34"/>
   <sheetViews>
-    <sheetView topLeftCell="HM25" zoomScale="224" workbookViewId="0">
-      <selection activeCell="IE32" sqref="IE32"/>
+    <sheetView topLeftCell="A37" zoomScale="224" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35613,7 +35613,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:602" x14ac:dyDescent="0.2">
@@ -35739,7 +35739,7 @@
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:602" x14ac:dyDescent="0.2">
@@ -35747,12 +35747,12 @@
         <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:602" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:602" x14ac:dyDescent="0.2">
@@ -37565,7 +37565,7 @@
     </row>
     <row r="32" spans="1:602" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>0.37999999523162842</v>
@@ -39373,7 +39373,7 @@
     </row>
     <row r="33" spans="1:602" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>0.39010000228881836</v>
@@ -41181,7 +41181,7 @@
     </row>
     <row r="34" spans="1:602" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>0.38789999485015869</v>
@@ -42999,8 +42999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WD68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HI16" zoomScale="182" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="HO34" sqref="HO34"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44997,7 +44997,7 @@
     </row>
     <row r="30" spans="1:602" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>0.35569998621940613</v>
@@ -46805,7 +46805,7 @@
     </row>
     <row r="31" spans="1:602" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>0.36759999394416809</v>
@@ -48613,7 +48613,7 @@
     </row>
     <row r="32" spans="1:602" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>0.37450000643730164</v>
@@ -50421,10 +50421,10 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
